--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st03.xlsx
@@ -2940,7 +2940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  ...Fine. 
+    <t xml:space="preserve">[name="Sonya"]  ...Fine. 
 </t>
   </si>
   <si>
@@ -3196,7 +3196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Honestly, I like the name "General Zima."
+    <t xml:space="preserve">Honestly, I like the name 'General Zima.'
 </t>
   </si>
   <si>
@@ -3408,7 +3408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Voice Outside the Door"]  Did she just say Sonya...? Is that actually "General Zima?!"
+    <t xml:space="preserve">[name="Voice Outside the Door"]  Did she just say Sonya...? Is that actually 'General Zima?!'
 </t>
   </si>
   <si>
@@ -3808,7 +3808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  Let’s go with... the "Ursus Student Self-Government Group."
+    <t xml:space="preserve">[name="Anna"]  Let’s go with... the 'Ursus Student Self-Government Group.'
 </t>
   </si>
   <si>
@@ -3820,7 +3820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  All right. From this day forward, we will be known as the "Ursus Student Self-Government Group." I lead the group, and you are my counselor.
+    <t xml:space="preserve">[name="Sonya"]  All right. From this day forward, we will be known as the 'Ursus Student Self-Government Group.' I lead the group, and you are my counselor.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st03.xlsx
@@ -2896,7 +2896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s morning. I come out of my room as usual.
+    <t xml:space="preserve">It's morning. I come out of my room as usual.
 </t>
   </si>
   <si>
@@ -2904,11 +2904,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  I’m not a kid anymore, mom.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom calls to me from the kitchen, where she’s cooking. I sit down at the table to wait for my piping hot breakfast.
+    <t xml:space="preserve">[name="Sonya"]  I'm not a kid anymore, mom.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom calls to me from the kitchen, where she's cooking. I sit down at the table to wait for my piping hot breakfast.
 </t>
   </si>
   <si>
@@ -2924,11 +2924,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Why don’t they run stories about my glorious accomplishments?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Father"]  Sonya, how’s school going?
+    <t xml:space="preserve">Why don't they run stories about my glorious accomplishments?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Father"]  Sonya, how's school going?
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Doesn’t he get tired of going through these motions twice a day? It’s only ever at breakfast and dinner that he pretends to care.
+    <t xml:space="preserve">Doesn't he get tired of going through these motions twice a day? It's only ever at breakfast and dinner that he pretends to care.
 </t>
   </si>
   <si>
@@ -2944,15 +2944,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Father"]  You’re in seventh grade already. It’s time you start behaving.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why? I’m only in seventh grade.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Father"]  And have you decided what you’ll do after you finish ninth?
+    <t xml:space="preserve">[name="Father"]  You're in seventh grade already. It's time you start behaving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why? I'm only in seventh grade.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Father"]  And have you decided what you'll do after you finish ninth?
 </t>
   </si>
   <si>
@@ -2960,11 +2960,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">After ninth grade, I have to decide whether I’ll keep studying or go to technical school to learn a trade.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I know Dad would rather I go to trade school. And I’m sure he’s about to say so.
+    <t xml:space="preserve">After ninth grade, I have to decide whether I'll keep studying or go to technical school to learn a trade.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know Dad would rather I go to trade school. And I'm sure he's about to say so.
 </t>
   </si>
   <si>
@@ -2984,23 +2984,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Since losing his job, Dad’s struggled to look Mom in the eye. Not that it was much better before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mother"]  You have to put aside your pride, Pierre. We can’t eat dignity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Father"]  I know. I’m trying, Anna.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom cares a lot more about my studies than Dad. She wants me to stay in school after graduation. She’s even saved up money for it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She always talks about how you couldn’t go all the way through ninth grade for free in her day.
+    <t xml:space="preserve">Since losing his job, Dad's struggled to look Mom in the eye. Not that it was much better before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mother"]  You have to put aside your pride, Pierre. We can't eat dignity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Father"]  I know. I'm trying, Anna.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom cares a lot more about my studies than Dad. She wants me to stay in school after graduation. She's even saved up money for it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She always talks about how you couldn't go all the way through ninth grade for free in her day.
 </t>
   </si>
   <si>
@@ -3008,15 +3008,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She finished her studies at a girls’ school, which let her get a pretty good job, even in a lousy economy like this one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sometimes, I wish I could be a good girl for her. Too bad I can’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mother"]  If only you were. Come on, Sonya, eat up. You don’t want to miss the bus.
+    <t xml:space="preserve">She finished her studies at a girls' school, which let her get a pretty good job, even in a lousy economy like this one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes, I wish I could be a good girl for her. Too bad I can't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mother"]  If only you were. Come on, Sonya, eat up. You don't want to miss the bus.
 </t>
   </si>
   <si>
@@ -3028,15 +3028,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  Mom... what’s this?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mother"]  What do you mean? It’s the same thing we eat every day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  No it isn’t!
+    <t xml:space="preserve">[name="Sonya"]  Mom... what's this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mother"]  What do you mean? It's the same thing we eat every day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  No it isn't!
 </t>
   </si>
   <si>
@@ -3056,11 +3056,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She’s me? That’s ridiculous. Then who am I?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya?"]  You’re Sonya.
+    <t xml:space="preserve">She's me? That's ridiculous. Then who am I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya?"]  You're Sonya.
 </t>
   </si>
   <si>
@@ -3076,7 +3076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Oh, I get it. This is a nightmare. That’s the easiest explanation. Hah. It’s just some weird-looking food. I’ve had scarier dreams.
+    <t xml:space="preserve">Oh, I get it. This is a nightmare. That's the easiest explanation. Hah. It's just some weird-looking food. I've had scarier dreams.
 </t>
   </si>
   <si>
@@ -3088,7 +3088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  A column of tanks, a giant monster, your father’s fist. Something simple and cruel.
+    <t xml:space="preserve">[name="Sonya?"]  A column of tanks, a giant monster, your father's fist. Something simple and cruel.
 </t>
   </si>
   <si>
@@ -3096,11 +3096,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  What’s it to you? You’re just a figment of my imagination too. How else would you know what I’m thinking?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya?"]  Take a closer look at the food you’re holding.
+    <t xml:space="preserve">[name="Sonya"]  What's it to you? You're just a figment of my imagination too. How else would you know what I'm thinking?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya?"]  Take a closer look at the food you're holding.
 </t>
   </si>
   <si>
@@ -3108,11 +3108,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s not porridge. It’s rice in water with some weeds mixed in. It’s nothing like Mom’s cooking!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bread... it’s bread, but it smells terrible, like it’s been left out for days on end.
+    <t xml:space="preserve">It's not porridge. It's rice in water with some weeds mixed in. It's nothing like Mom's cooking!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bread... it's bread, but it smells terrible, like it's been left out for days on end.
 </t>
   </si>
   <si>
@@ -3120,7 +3120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The ham looks like it’s been torn off a bigger hunk of flesh, and it smells almost... fishy. Wait, is this... blood?!
+    <t xml:space="preserve">The ham looks like it's been torn off a bigger hunk of flesh, and it smells almost... fishy. Wait, is this... blood?!
 </t>
   </si>
   <si>
@@ -3128,11 +3128,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  It’s just a nightmare!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya?"]  But you’ve never had one like this. And it feels so real. It’s as if...
+    <t xml:space="preserve">[name="Sonya"]  It's just a nightmare!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya?"]  But you've never had one like this. And it feels so real. It's as if...
 </t>
   </si>
   <si>
@@ -3140,15 +3140,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">And she doesn’t look happy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Either way, I know I can’t let her get away with it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even if the food’s a bit worse, does that make a life not worth living?
+    <t xml:space="preserve">And she doesn't look happy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Either way, I know I can't let her get away with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if the food's a bit worse, does that make a life not worth living?
 </t>
   </si>
   <si>
@@ -3164,11 +3164,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  Doesn’t it feel just like you’ve actually eaten it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I clench my fist and lunge at her, but she’s one step ahead.
+    <t xml:space="preserve">[name="Sonya?"]  Doesn't it feel just like you've actually eaten it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I clench my fist and lunge at her, but she's one step ahead.
 </t>
   </si>
   <si>
@@ -3188,11 +3188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  Blyat’! Even weak cubs like you want to play bully? It’ll take more than that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student C"]  *Spit*, go. Just you wait, General Zima, this isn’t over!
+    <t xml:space="preserve">[name="Sonya"]  Blyat'! Even weak cubs like you want to play bully? It'll take more than that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student C"]  *Spit*, go. Just you wait, General Zima, this isn't over!
 </t>
   </si>
   <si>
@@ -3200,11 +3200,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s badass.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But these punks always come at me while I’m trying to nap. Don’t they know I usually skip afternoon class?
+    <t xml:space="preserve">It's badass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But these punks always come at me while I'm trying to nap. Don't they know I usually skip afternoon class?
 </t>
   </si>
   <si>
@@ -3212,7 +3212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  Huh? You’re still here? You didn’t run away?
+    <t xml:space="preserve">[name="Sonya"]  Huh? You're still here? You didn't run away?
 </t>
   </si>
   <si>
@@ -3224,19 +3224,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bullied Student"]  Oh, you don’t recognize me? My name is Valeria. This isn’t the first time you’ve had to save me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now that she mentions it, the yellow bow in this girl’s hair does look familiar.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was it last week? Or last month? I’m pretty sure I helped her, yeah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bullied Student"]  You saved my friends too. We’re all so thankful to you.
+    <t xml:space="preserve">[name="Bullied Student"]  Oh, you don't recognize me? My name is Valeria. This isn't the first time you've had to save me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now that she mentions it, the yellow bow in this girl's hair does look familiar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was it last week? Or last month? I'm pretty sure I helped her, yeah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bullied Student"]  You saved my friends too. We're all so thankful to you.
 </t>
   </si>
   <si>
@@ -3244,15 +3244,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  I just can’t stand these shitheads pushing the little people around.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  And you need to work up some courage. If you were braver, they’d be the ones scared of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bullied Student"]  Yes... You’re right. I’ll try.
+    <t xml:space="preserve">[name="Sonya"]  I just can't stand these shitheads pushing the little people around.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  And you need to work up some courage. If you were braver, they'd be the ones scared of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bullied Student"]  Yes... You're right. I'll try.
 </t>
   </si>
   <si>
@@ -3284,7 +3284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  What’s that?
+    <t xml:space="preserve">[name="Sonya"]  What's that?
 </t>
   </si>
   <si>
@@ -3296,7 +3296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It looks so familiar. But it’s dirty, and one side is broken.
+    <t xml:space="preserve">It looks so familiar. But it's dirty, and one side is broken.
 </t>
   </si>
   <si>
@@ -3336,7 +3336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A girl with glasses walks in, carrying a book. I can tell from her uniform that she doesn’t go to this school.
+    <t xml:space="preserve">A girl with glasses walks in, carrying a book. I can tell from her uniform that she doesn't go to this school.
 </t>
   </si>
   <si>
@@ -3344,7 +3344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  This is my territory. I’m the only one allowed in.
+    <t xml:space="preserve">[name="Sonya"]  This is my territory. I'm the only one allowed in.
 </t>
   </si>
   <si>
@@ -3356,11 +3356,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  You’re... Anna?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna used to be my neighbor. I haven’t seen her in years, since we moved, but...
+    <t xml:space="preserve">[name="Sonya"]  You're... Anna?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna used to be my neighbor. I haven't seen her in years, since we moved, but...
 </t>
   </si>
   <si>
@@ -3368,7 +3368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Honestly, she asked nicely, and it’s not like we didn’t get along before. I don’t really want to turn her down.
+    <t xml:space="preserve">Honestly, she asked nicely, and it's not like we didn't get along before. I don't really want to turn her down.
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Voice Outside the Door"]  There’s only one inside, Anna. Let’s just chase her away.
+    <t xml:space="preserve">[name="Voice Outside the Door"]  There's only one inside, Anna. Let's just chase her away.
 </t>
   </si>
   <si>
@@ -3388,23 +3388,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  Then we’d be no different from the robbers. That isn’t us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Anna’s the same as she ever was. A peacemaker.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Right. Um, I’m Lada, and I’m a pretty good cook. What if I made you something to eat in return for letting us hide here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have to say, that’s a pretty tempting offer. It’s been a while since I’ve had something that didn’t just come out of a can.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  Okay. You can stay. But watch your step. I’m Sonya. And you don’t mess with me.
+    <t xml:space="preserve">[name="Anna"]  Then we'd be no different from the robbers. That isn't us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Anna's the same as she ever was. A peacemaker.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Right. Um, I'm Lada, and I'm a pretty good cook. What if I made you something to eat in return for letting us hide here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have to say, that's a pretty tempting offer. It's been a while since I've had something that didn't just come out of a can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  Okay. You can stay. But watch your step. I'm Sonya. And you don't mess with me.
 </t>
   </si>
   <si>
@@ -3412,7 +3412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Voice Outside the Door"]  She’s famous even over at our school. She’s easily the strongest girl in the district.
+    <t xml:space="preserve">[name="Voice Outside the Door"]  She's famous even over at our school. She's easily the strongest girl in the district.
 </t>
   </si>
   <si>
@@ -3424,7 +3424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  Thank you, Sonya. We’ll try not to bother you.
+    <t xml:space="preserve">[name="Anna"]  Thank you, Sonya. We'll try not to bother you.
 </t>
   </si>
   <si>
@@ -3436,7 +3436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The first bunch are a mix of girls and boys. Their clothes are pretty ragged, their hair all messy, and they clearly haven’t slept in days.
+    <t xml:space="preserve">The first bunch are a mix of girls and boys. Their clothes are pretty ragged, their hair all messy, and they clearly haven't slept in days.
 </t>
   </si>
   <si>
@@ -3456,7 +3456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  Floating sailor suits, huh? That’s quite a coping mechanism.
+    <t xml:space="preserve">[name="Sonya?"]  Floating sailor suits, huh? That's quite a coping mechanism.
 </t>
   </si>
   <si>
@@ -3464,7 +3464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  I’m you. And you’re dreaming, idiot.
+    <t xml:space="preserve">[name="Sonya?"]  I'm you. And you're dreaming, idiot.
 </t>
   </si>
   <si>
@@ -3476,7 +3476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  I mean, at least it’s better than a bunch of headless zombies.
+    <t xml:space="preserve">[name="Sonya?"]  I mean, at least it's better than a bunch of headless zombies.
 </t>
   </si>
   <si>
@@ -3492,7 +3492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  Because they were going to attack you. Weren’t they, Istina?
+    <t xml:space="preserve">[name="Sonya?"]  Because they were going to attack you. Weren't they, Istina?
 </t>
   </si>
   <si>
@@ -3500,7 +3500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  Right. As long as there’s a good reason for it, violence is okay. That’s how I roll.
+    <t xml:space="preserve">[name="Sonya?"]  Right. As long as there's a good reason for it, violence is okay. That's how I roll.
 </t>
   </si>
   <si>
@@ -3512,11 +3512,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This is pretty weird, even for a dream. My doppelganger is having a conversation with a girl I barely know, as if they’re old friends. But all reason tells me they’re both just figments of my imagination.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That reminds me, shouldn’t I have woken up as soon as I realized I was in a dream?
+    <t xml:space="preserve">This is pretty weird, even for a dream. My doppelganger is having a conversation with a girl I barely know, as if they're old friends. But all reason tells me they're both just figments of my imagination.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That reminds me, shouldn't I have woken up as soon as I realized I was in a dream?
 </t>
   </si>
   <si>
@@ -3540,7 +3540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But she’s gone.
+    <t xml:space="preserve">But she's gone.
 </t>
   </si>
   <si>
@@ -3552,7 +3552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The room around me is still the classroom. It’s late at night. The others are asleep. I’m slumped up against the door.
+    <t xml:space="preserve">The room around me is still the classroom. It's late at night. The others are asleep. I'm slumped up against the door.
 </t>
   </si>
   <si>
@@ -3564,15 +3564,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  You can’t sleep, Sonya?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I hear Anna’s voice nearby.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s been three days since she and her partner joined us. There was some unpleasantness in that time, but Anna sided with me in the end.
+    <t xml:space="preserve">[name="Anna"]  You can't sleep, Sonya?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hear Anna's voice nearby.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's been three days since she and her partner joined us. There was some unpleasantness in that time, but Anna sided with me in the end.
 </t>
   </si>
   <si>
@@ -3580,11 +3580,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  ...Don’t let it get to you. You did nothing wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can’t remember what I was dreaming about, but Anna must be thinking it was something to do with them.
+    <t xml:space="preserve">[name="Anna"]  ...Don't let it get to you. You did nothing wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't remember what I was dreaming about, but Anna must be thinking it was something to do with them.
 </t>
   </si>
   <si>
@@ -3596,11 +3596,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’ve seen lots of groups fall apart because of little conflicts like this. It’s why I didn’t want to join a group in the first place. I’d rather communicate with my fists than try to manage relationships.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  Don’t worry.
+    <t xml:space="preserve">I've seen lots of groups fall apart because of little conflicts like this. It's why I didn't want to join a group in the first place. I'd rather communicate with my fists than try to manage relationships.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  Don't worry.
 </t>
   </si>
   <si>
@@ -3608,7 +3608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I know she wants to comfort me, but it’s obvious she’s the one who needs comforting. I should change the subject.
+    <t xml:space="preserve">I know she wants to comfort me, but it's obvious she's the one who needs comforting. I should change the subject.
 </t>
   </si>
   <si>
@@ -3632,7 +3632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  You’re teasing me.
+    <t xml:space="preserve">[name="Anna"]  You're teasing me.
 </t>
   </si>
   <si>
@@ -3640,11 +3640,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  You should’ve kicked their asses. You’re a tough girl.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s true. She may look the bookish type, but Anna’s really very good in a fight. She just doesn’t like to apply herself.
+    <t xml:space="preserve">[name="Sonya"]  You should've kicked their asses. You're a tough girl.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's true. She may look the bookish type, but Anna's really very good in a fight. She just doesn't like to apply herself.
 </t>
   </si>
   <si>
@@ -3652,23 +3652,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Oops, she sounds even sadder than before. I really don’t know how to comfort a girl. What can I say to cheer her up?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  ...At- at least you’re standing up now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That’s the best you could come up with, Sonya?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Anna"]  ...Because I believe it’s wrong. At least, that’s what I thought at first.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  What’s wrong?
+    <t xml:space="preserve">Oops, she sounds even sadder than before. I really don't know how to comfort a girl. What can I say to cheer her up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  ...At- at least you're standing up now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's the best you could come up with, Sonya?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Anna"]  ...Because I believe it's wrong. At least, that's what I thought at first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  What's wrong?
 </t>
   </si>
   <si>
@@ -3676,11 +3676,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  We’ve been locked up in this school for eight days. Everything keeps getting worse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  It’s all because of that first fire. If it wasn’t for the fire...
+    <t xml:space="preserve">[name="Anna"]  We've been locked up in this school for eight days. Everything keeps getting worse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  It's all because of that first fire. If it wasn't for the fire...
 </t>
   </si>
   <si>
@@ -3696,7 +3696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  Perhaps, but don’t you think that fire was bound to happen sooner or later?
+    <t xml:space="preserve">[name="Anna"]  Perhaps, but don't you think that fire was bound to happen sooner or later?
 </t>
   </si>
   <si>
@@ -3708,7 +3708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  It’s more like that which the fire represents would have come about no matter what.
+    <t xml:space="preserve">[name="Anna"]  It's more like that which the fire represents would have come about no matter what.
 </t>
   </si>
   <si>
@@ -3720,7 +3720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  Weird. It must’ve been the bad guys who set the fire. The bad guys...
+    <t xml:space="preserve">[name="Sonya"]  Weird. It must've been the bad guys who set the fire. The bad guys...
 </t>
   </si>
   <si>
@@ -3732,7 +3732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t think that’s right. But I don’t know how to argue with her either.
+    <t xml:space="preserve">I don't think that's right. But I don't know how to argue with her either.
 </t>
   </si>
   <si>
@@ -3740,7 +3740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  I thought it strange at the time. We’ve built such civilized societies. We live lives of order and morality. How can we be inherently evil?
+    <t xml:space="preserve">[name="Anna"]  I thought it strange at the time. We've built such civilized societies. We live lives of order and morality. How can we be inherently evil?
 </t>
   </si>
   <si>
@@ -3752,11 +3752,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  I didn’t restore order. I didn’t save anyone. And without you, my classmates might have already killed me...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Anna"]  I’m useless.
+    <t xml:space="preserve">[name="Anna"]  I didn't restore order. I didn't save anyone. And without you, my classmates might have already killed me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Anna"]  I'm useless.
 </t>
   </si>
   <si>
@@ -3768,15 +3768,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Whatever. I don’t know shit about morals, order, society or any of that. But I understand what she’s getting at, so I might as well start talking.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  What you’re saying is you now think everyone does bad stuff? Including me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Anna"]  ...That’s not what I meant.
+    <t xml:space="preserve">Whatever. I don't know shit about morals, order, society or any of that. But I understand what she's getting at, so I might as well start talking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  What you're saying is you now think everyone does bad stuff? Including me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Anna"]  ...That's not what I meant.
 </t>
   </si>
   <si>
@@ -3788,7 +3788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  Okay, don’t be sad. I’ll help you.
+    <t xml:space="preserve">[name="Sonya"]  Okay, don't be sad. I'll help you.
 </t>
   </si>
   <si>
@@ -3796,7 +3796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  I’m your leader. And you want to do good. Of course I’ll help you.
+    <t xml:space="preserve">[name="Sonya"]  I'm your leader. And you want to do good. Of course I'll help you.
 </t>
   </si>
   <si>
@@ -3804,15 +3804,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  Hey, isn’t it customary for a group to get a new name when it gets a new leader? You got any ideas?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Anna"]  Let’s go with... the 'Ursus Student Self-Government Group.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...I probably shouldn’t have expected much out of an honor student.
+    <t xml:space="preserve">[name="Sonya"]  Hey, isn't it customary for a group to get a new name when it gets a new leader? You got any ideas?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Anna"]  Let's go with... the 'Ursus Student Self-Governing Group.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...I probably shouldn't have expected much out of an honor student.
 </t>
   </si>
   <si>
@@ -3820,7 +3820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  All right. From this day forward, we will be known as the 'Ursus Student Self-Government Group.' I lead the group, and you are my counselor.
+    <t xml:space="preserve">[name="Sonya"]  All right. From this day forward, we will be known as the 'Ursus Student Self-Governing Group.' I lead the group, and you are my counselor.
 </t>
   </si>
   <si>
@@ -3832,7 +3832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  Because you finally protected something. You earned someone’s trust. You started feeling like a real leader, like a hero out of one of those novels.
+    <t xml:space="preserve">[name="Sonya?"]  Because you finally protected something. You earned someone's trust. You started feeling like a real leader, like a hero out of one of those novels.
 </t>
   </si>
   <si>
@@ -3840,7 +3840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  I’m you. Are you blind?
+    <t xml:space="preserve">[name="Sonya?"]  I'm you. Are you blind?
 </t>
   </si>
   <si>
@@ -3848,11 +3848,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">And it freaks me out the way she always says what I’m thinking. Not to mention her creepy tone of voice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya?"]  It’s no fun for me either. But every time I think back on this night, I want to laugh at myself.
+    <t xml:space="preserve">And it freaks me out the way she always says what I'm thinking. Not to mention her creepy tone of voice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya?"]  It's no fun for me either. But every time I think back on this night, I want to laugh at myself.
 </t>
   </si>
   <si>
@@ -3860,7 +3860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  I don’t know. And I’m not going to ask you.
+    <t xml:space="preserve">[name="Sonya?"]  I don't know. And I'm not going to ask you.
 </t>
   </si>
   <si>
@@ -3868,7 +3868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  I’m scared you’ll say it was your fault. And I’m just as scared you’ll say it was mine.
+    <t xml:space="preserve">[name="Sonya?"]  I'm scared you'll say it was your fault. And I'm just as scared you'll say it was mine.
 </t>
   </si>
   <si>
@@ -3884,7 +3884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Think about it, Anna! Sonya alone can’t protect all of us!
+    <t xml:space="preserve">[name="???"]  Think about it, Anna! Sonya alone can't protect all of us!
 </t>
   </si>
   <si>
@@ -3896,7 +3896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  So you’re going to risk all our lives?!
+    <t xml:space="preserve">[name="???"]  So you're going to risk all our lives?!
 </t>
   </si>
   <si>
@@ -3904,7 +3904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">That’s when the darkness begins to swallow me.
+    <t xml:space="preserve">That's when the darkness begins to swallow me.
 </t>
   </si>
   <si>
@@ -3912,27 +3912,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">They’ll catch me if I take the main entrance, so this is my only way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There’s something I have to do. Something very important to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I understand Anna. Vika’s idea makes sense. And I’m not so full of myself I think I can take all those noble shitstains on my own.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least, I couldn’t take them head-on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They’re definitely asleep this late at night. Now’s the time to take them all out once and for all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well, maybe killing them all is a bit much. Capturing their leader should do the trick. But really, I’ll have to cut off the head to let the body die, at least...
+    <t xml:space="preserve">They'll catch me if I take the main entrance, so this is my only way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's something I have to do. Something very important to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I understand Anna. Vika's idea makes sense. And I'm not so full of myself I think I can take all those noble shitstains on my own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least, I couldn't take them head-on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They're definitely asleep this late at night. Now's the time to take them all out once and for all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, maybe killing them all is a bit much. Capturing their leader should do the trick. But really, I'll have to cut off the head to let the body die, at least...
 </t>
   </si>
   <si>
@@ -3944,11 +3944,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Student C"]  Hand over the food you’ve been hoarding!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student A"]  We... we don’t have any food, I swear!
+    <t xml:space="preserve">[name="Student C"]  Hand over the food you've been hoarding!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student A"]  We... we don't have any food, I swear!
 </t>
   </si>
   <si>
@@ -3956,19 +3956,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’m not going to save them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not only because I’m busy. I also don’t care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve seen so much of this these past two days.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I saved a few. And now we’ve got more kids holed up in the classroom than when Anna showed up with her classmates.
+    <t xml:space="preserve">I'm not going to save them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not only because I'm busy. I also don't care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've seen so much of this these past two days.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I saved a few. And now we've got more kids holed up in the classroom than when Anna showed up with her classmates.
 </t>
   </si>
   <si>
@@ -3976,7 +3976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But the truth is, even though she told her I don’t like nobles, it’s actually Anna who hates the aristocrats more than anything.
+    <t xml:space="preserve">But the truth is, even though she told her I don't like nobles, it's actually Anna who hates the aristocrats more than anything.
 </t>
   </si>
   <si>
@@ -3984,11 +3984,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  She doesn’t want to join them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And I sure as hell can’t change her mind. So it would be nice if the cause of all her worries here just... went away.
+    <t xml:space="preserve">[name="Sonya"]  She doesn't want to join them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I sure as hell can't change her mind. So it would be nice if the cause of all her worries here just... went away.
 </t>
   </si>
   <si>
@@ -3996,7 +3996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  Hm? That tree was still standing yesterday. Who’s bored enough to go around chopping down trees, I...?!
+    <t xml:space="preserve">[name="Sonya"]  Hm? That tree was still standing yesterday. Who's bored enough to go around chopping down trees, I...?!
 </t>
   </si>
   <si>
@@ -4012,7 +4012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s only been ten days since they locked us in here, but the school looks like it’s been abandoned for years.
+    <t xml:space="preserve">It's only been ten days since they locked us in here, but the school looks like it's been abandoned for years.
 </t>
   </si>
   <si>
@@ -4020,11 +4020,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Honestly, I hate it. And I don’t know when it will finally end.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I hang my head and press forward, to the fancy scumbags’ base. It’s in this warehouse, with the last of our food.
+    <t xml:space="preserve">Honestly, I hate it. And I don't know when it will finally end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hang my head and press forward, to the fancy scumbags' base. It's in this warehouse, with the last of our food.
 </t>
   </si>
   <si>
@@ -4036,15 +4036,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  I’m you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not sure why, but I actually wasn’t that surprised.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya?"]  You’ll be charging into this warehouse in a minute.
+    <t xml:space="preserve">[name="Sonya?"]  I'm you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure why, but I actually wasn't that surprised.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya?"]  You'll be charging into this warehouse in a minute.
 </t>
   </si>
   <si>
@@ -4052,7 +4052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  You’re strong, Sonya. You almost managed to break through them.
+    <t xml:space="preserve">[name="Sonya?"]  You're strong, Sonya. You almost managed to break through them.
 </t>
   </si>
   <si>
@@ -4060,7 +4060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya?"]  But you’ve always been so reckless. You knocked over a lovely candelabra, and, well...
+    <t xml:space="preserve">[name="Sonya?"]  But you've always been so reckless. You knocked over a lovely candelabra, and, well...
 </t>
   </si>
   <si>
@@ -4076,11 +4076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  The blaze destroyed the nobles’ stronghold, and all the food along with it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  Nothing could be saved. And in Anna’s parlance, the fire burned down the final barrier to the students’ indiscriminate and chaotic struggle that followed.
+    <t xml:space="preserve">[name="Sonya"]  The blaze destroyed the nobles' stronghold, and all the food along with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  Nothing could be saved. And in Anna's parlance, the fire burned down the final barrier to the students' indiscriminate and chaotic struggle that followed.
 </t>
   </si>
   <si>
@@ -4092,7 +4092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Student C"]  Back off! I haven’t eaten in three days! I’m looking for food!
+    <t xml:space="preserve">[name="Student C"]  Back off! I haven't eaten in three days! I'm looking for food!
 </t>
   </si>
   <si>
@@ -4108,7 +4108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  Some of our Self-Government Group have gone missing. Vika never came back.
+    <t xml:space="preserve">[name="Sonya"]  Some of our Self-Governing Group have gone missing. Vika never came back.
 </t>
   </si>
   <si>
@@ -4116,7 +4116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Student B"]  It’s mine!
+    <t xml:space="preserve">[name="Student B"]  It's mine!
 </t>
   </si>
   <si>
@@ -4124,11 +4124,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  One day, I can’t remember which, Reunion suddenly left.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  But they never actually did anything other than lock us inside. And the chaos continued, as if the students didn’t even notice they were gone.
+    <t xml:space="preserve">[name="Sonya"]  One day, I can't remember which, Reunion suddenly left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  But they never actually did anything other than lock us inside. And the chaos continued, as if the students didn't even notice they were gone.
 </t>
   </si>
   <si>
@@ -4144,11 +4144,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  We can finally leave! Why don’t you look excited, Anna?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  It doesn’t matter anymore.
+    <t xml:space="preserve">[name="Rosalind"]  We can finally leave! Why don't you look excited, Anna?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  It doesn't matter anymore.
 </t>
   </si>
   <si>
@@ -4180,7 +4180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lada"]  Aaaaaahhh! I’m scared!
+    <t xml:space="preserve">[name="Lada"]  Aaaaaahhh! I'm scared!
 </t>
   </si>
   <si>
@@ -4192,7 +4192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  After that, we took refuge in the part of the city that wasn’t overgrown with Originium, hiding from other survivors, hiding from Reunion.
+    <t xml:space="preserve">[name="Sonya"]  After that, we took refuge in the part of the city that wasn't overgrown with Originium, hiding from other survivors, hiding from Reunion.
 </t>
   </si>
   <si>
@@ -4200,7 +4200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  Who’s there?!
+    <t xml:space="preserve">[name="Vanguard Operator"]  Who's there?!
 </t>
   </si>
   <si>
@@ -4208,7 +4208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  She’s armed!
+    <t xml:space="preserve">[name="Vanguard Operator"]  She's armed!
 </t>
   </si>
   <si>
@@ -4216,7 +4216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  Wait, we’re here to rescue survivors!
+    <t xml:space="preserve">[name="Vanguard Operator"]  Wait, we're here to rescue survivors!
 </t>
   </si>
   <si>
@@ -4224,7 +4224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  Calm down. We’re with an organization called Rhodes Island. You’re safe now.
+    <t xml:space="preserve">[name="Vanguard Operator"]  Calm down. We're with an organization called Rhodes Island. You're safe now.
 </t>
   </si>
   <si>
@@ -4232,7 +4232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  But I failed to do away with all Anna’s worries. Honestly, I let her down.
+    <t xml:space="preserve">[name="Sonya"]  But I failed to do away with all Anna's worries. Honestly, I let her down.
 </t>
   </si>
   <si>
@@ -4244,7 +4244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anna"]  I don’t blame you, Sonya. But if you had discussed it with me beforehand...
+    <t xml:space="preserve">[name="Anna"]  I don't blame you, Sonya. But if you had discussed it with me beforehand...
 </t>
   </si>
   <si>
@@ -4252,11 +4252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Zima, I’m still willing to trust you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  But I don’t know how to talk to you about these things.
+    <t xml:space="preserve">[name="Istina"]  Zima, I'm still willing to trust you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  But I don't know how to talk to you about these things.
 </t>
   </si>
   <si>
@@ -4264,7 +4264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  I’m not.
+    <t xml:space="preserve">[name="Sonya"]  I'm not.
 </t>
   </si>
   <si>
@@ -4272,7 +4272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  It wasn’t that bad.
+    <t xml:space="preserve">[name="Sonya"]  It wasn't that bad.
 </t>
   </si>
   <si>
@@ -4280,15 +4280,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonya"]  I didn’t want to kill you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  Don’t beat yourself up. You made a mistake is all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  I can’t stop thinking about it!
+    <t xml:space="preserve">[name="Sonya"]  I didn't want to kill you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  Don't beat yourself up. You made a mistake is all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  I can't stop thinking about it!
 </t>
   </si>
   <si>
